--- a/staff_info.xlsx
+++ b/staff_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ANSL\quiz_data_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pema\Repositories\quiz-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571DECF-CA68-41D3-8595-04F342E38159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3D19B-E927-448F-A872-C9EC440433CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="146">
   <si>
     <t>Staff No</t>
   </si>
@@ -328,6 +328,141 @@
   </si>
   <si>
     <t>BIS</t>
+  </si>
+  <si>
+    <t>David Wyllie</t>
+  </si>
+  <si>
+    <t>Group Innovation Programme Director</t>
+  </si>
+  <si>
+    <t>Software Solutions</t>
+  </si>
+  <si>
+    <t>PDT, TD</t>
+  </si>
+  <si>
+    <t>DAWY</t>
+  </si>
+  <si>
+    <t> KCG</t>
+  </si>
+  <si>
+    <t>Casey Giberson</t>
+  </si>
+  <si>
+    <t>Global Partnerships Lead</t>
+  </si>
+  <si>
+    <t>Sustainable Communities</t>
+  </si>
+  <si>
+    <t>Strategic Consulting</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>CM, PD, PM</t>
+  </si>
+  <si>
+    <t>BGO</t>
+  </si>
+  <si>
+    <t>Brett Ogilvie</t>
+  </si>
+  <si>
+    <t>Executive Leader - Sustainability + Digital</t>
+  </si>
+  <si>
+    <t>24+</t>
+  </si>
+  <si>
+    <t> DASO</t>
+  </si>
+  <si>
+    <t>Daria Solovyeva</t>
+  </si>
+  <si>
+    <t>Geospatial Analyst</t>
+  </si>
+  <si>
+    <t>Geospatial Solutions</t>
+  </si>
+  <si>
+    <t> GJS</t>
+  </si>
+  <si>
+    <t>Gary Stone</t>
+  </si>
+  <si>
+    <t>Executive Leader - CFO</t>
+  </si>
+  <si>
+    <t>Risk + Finance</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>GLT, PD, PM</t>
+  </si>
+  <si>
+    <t> HHAL</t>
+  </si>
+  <si>
+    <t>Harriet Hall</t>
+  </si>
+  <si>
+    <t>Senior People + Capability Advisor</t>
+  </si>
+  <si>
+    <t>People &amp; Capability</t>
+  </si>
+  <si>
+    <t>JIBO</t>
+  </si>
+  <si>
+    <t>Jill Bolland</t>
+  </si>
+  <si>
+    <t>Principal Natural Hazard and Climate Risk Consulta</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Water Engineering 1</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t> SGV</t>
+  </si>
+  <si>
+    <t>Sindiya Vaakesan</t>
+  </si>
+  <si>
+    <t>Water Resources Engineer</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>Virginie Lacrosse</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineer</t>
+  </si>
+  <si>
+    <t>Geotechnical</t>
+  </si>
+  <si>
+    <t>G6 GT Group 6 JSMI</t>
   </si>
 </sst>
 </file>
@@ -371,9 +506,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,8 +1764,355 @@
         <v>72</v>
       </c>
     </row>
+    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3694</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>390</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1773</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>340</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1238</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>400</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4830</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>140</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>400</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3409</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4431</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>290</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2818</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>230</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>290</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" location="/portal/profiles/3694" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/3694" xr:uid="{A676C7C4-E5CB-4BB6-BE4E-761F24261755}"/>
+    <hyperlink ref="C27" r:id="rId2" location="/portal/profiles/1773" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/1773" xr:uid="{C31322F3-475C-4DFA-BB4C-E82DB9CB09ED}"/>
+    <hyperlink ref="C28" r:id="rId3" location="/portal/profiles/1238" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/1238" xr:uid="{9AE70ED7-E54E-47AC-84C4-E909BFF02C16}"/>
+    <hyperlink ref="C29" r:id="rId4" location="/portal/profiles/4830" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/4830" xr:uid="{5B1266E3-44E6-41E4-AA31-D38B7BFF997C}"/>
+    <hyperlink ref="C30" r:id="rId5" location="/portal/profiles/180" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/180" xr:uid="{E9EA7ABB-0C13-4B94-BDE5-3AA35CCDCCD6}"/>
+    <hyperlink ref="C31" r:id="rId6" location="/portal/profiles/3409" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/3409" xr:uid="{BE2C5C13-E339-437C-A533-EF1D5A42662B}"/>
+    <hyperlink ref="C32" r:id="rId7" location="/portal/profiles/4431" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/4431" xr:uid="{77729084-7A8C-4C38-BB96-190E1422B058}"/>
+    <hyperlink ref="C33" r:id="rId8" location="/portal/profiles/2818" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/2818" xr:uid="{0840A345-A8D4-4B45-A43E-C86D7D5C2DC0}"/>
+    <hyperlink ref="C34" r:id="rId9" location="/portal/profiles/2185" display="https://ttintranet.azurewebsites.net/ - /portal/profiles/2185" xr:uid="{3C36E150-4DDB-4276-901F-8F3B3FF039D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>